--- a/data/trans_dic/P24_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P24_3_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con incremento de la tensión arterial con bastante o mucha frecuencia</t>
+          <t>Población con incremento de la tensión arterial con bastante o mucha frecuencia (tasa de respuesta: 98,72%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>15,39%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>29,55%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>12,55%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>11,26%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>12,26%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>23,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 9,57</t>
+          <t>2,22; 20,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,1; 17,29</t>
+          <t>6,46; 30,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,3; 19,47</t>
+          <t>3,59; 25,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,03; 13,37</t>
+          <t>3,94; 25,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 11,54</t>
+          <t>4,56; 30,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,62; 15,8</t>
+          <t>0,0; 12,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,94; 16,01</t>
+          <t>2,33; 20,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,09; 18,56</t>
+          <t>3,22; 23,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 8,24</t>
+          <t>4,12; 24,26</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,26; 14,57</t>
+          <t>16,25; 56,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,0; 14,69</t>
+          <t>2,43; 12,19</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,17; 14,06</t>
+          <t>6,45; 20,47</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>5,76; 19,03</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>6,31; 20,97</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>12,62; 41,54</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>6,86%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>6,78%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>5,93%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>9,35%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 7,89</t>
+          <t>0,61; 6,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 6,07</t>
+          <t>2,14; 9,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,98; 10,45</t>
+          <t>3,77; 12,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,55</t>
+          <t>1,79; 8,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,37; 7,1</t>
+          <t>3,06; 10,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,36; 12,39</t>
+          <t>1,55; 7,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,95; 11,23</t>
+          <t>5,17; 12,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,85; 13,25</t>
+          <t>3,43; 11,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,33</t>
+          <t>4,71; 12,81</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 8,25</t>
+          <t>8,57; 18,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,36; 9,77</t>
+          <t>1,58; 5,67</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,71; 8,03</t>
+          <t>4,57; 10,11</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4,73; 10,05</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,76; 8,71</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>6,62; 13,11</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>2,66%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>4,79%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,69%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>5,26%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,77</t>
+          <t>0,0; 5,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 6,26</t>
+          <t>0,9; 8,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,17; 11,64</t>
+          <t>4,04; 13,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 9,99</t>
+          <t>3,17; 12,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,79</t>
+          <t>1,44; 8,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 5,48</t>
+          <t>0,51; 4,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 7,63</t>
+          <t>0,52; 5,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 6,57</t>
+          <t>0,63; 6,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,42</t>
+          <t>0,0; 4,71</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 5,02</t>
+          <t>2,26; 15,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,62; 8,13</t>
+          <t>0,6; 3,64</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 6,88</t>
+          <t>1,18; 5,45</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2,56; 7,76</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,95; 6,63</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,74; 9,66</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 5,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,39; 9,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,6; 8,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,16; 9,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,24; 9,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 4,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,36; 7,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,78; 8,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,61; 7,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,87%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,18%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7,98%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6,14%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7,13%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,82%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5,84%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13,47%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5,99%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>6,62%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>5,99%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>10,38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1,46; 5,18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,86; 9,39</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5,29; 11,36</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3,95; 9,19</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4,71; 10,49</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1,56; 5,0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3,77; 8,26</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3,31; 7,93</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3,84; 8,79</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>9,51; 21,1</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1,84; 4,29</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4,46; 7,89</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>4,91; 8,74</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>4,4; 7,99</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>8,15; 14,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con incremento de la tensión arterial con bastante o mucha frecuencia (tasa de respuesta: 98,72%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8637</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>21217</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12433</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>13561</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>27337</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4571</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11993</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11073</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>13200</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>60924</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>13208</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>33210</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>23506</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>26761</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>88261</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2296; 21587</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8331; 39191</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3707; 25867</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4309; 28427</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8102; 54322</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14813</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3161; 27852</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3396; 25286</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4484; 26376</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>33513; 117053</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5382; 26950</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>17068; 54148</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>12029; 39752</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>13779; 45767</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>48432; 159422</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8947</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>20399</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>24705</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>16370</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>30904</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>14706</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>37926</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>23313</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>28074</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>61647</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>23653</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>58325</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>48018</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>44444</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>92551</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2226; 22362</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8633; 38290</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13058; 42224</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6937; 30993</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>15376; 52797</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6068; 29312</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>23149; 58091</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>12406; 40004</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>17057; 46360</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>41817; 90600</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>11984; 42927</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>38863; 86011</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>33458; 71142</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>28161; 65287</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>65564; 129714</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4120</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11071</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>20161</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>17045</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>15406</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6187</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8737</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8053</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>4193</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>23891</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>10307</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>19808</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>28214</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>21238</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>39297</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15400</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2887; 28171</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10830; 35952</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8470; 33711</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5077; 31352</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1840; 16498</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2225; 21799</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2008; 20383</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14519</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8880; 62659</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3884; 23506</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8796; 40553</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>15055; 45647</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>11199; 38162</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>20417; 72086</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>21703</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>52686</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>57299</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>46976</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>73647</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>25464</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>58657</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>42439</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>45467</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>146462</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>47167</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>111343</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>99738</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>92443</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>220109</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>10996; 39143</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>32938; 80118</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>37947; 81496</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>30207; 70253</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>48676; 108339</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>13512; 43432</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>38008; 83143</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>26072; 62505</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>29944; 68496</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>103372; 229404</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>29890; 69613</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>82982; 146722</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>73978; 131653</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>67899; 123304</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>172787; 305199</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
